--- a/results/sfcc_MSCNN_2_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/sfcc_MSCNN_2_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,747 @@
         <v>0.8922644898028942</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub3ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.95575221238938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4605548793188063</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8495575221238939</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8419019747880776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub3ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.08866858709851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4810388893160659</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9008866858709851</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8936679280731668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub3ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.67638128357513</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6159949256301237</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8967638128357512</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8838740699562928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub4ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.97397036306543</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3023271042953032</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9097397036306543</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9101447423215421</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub4ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9677966701065694</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8295579557176362</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub4ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>91.53392330383481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3687922502635047</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9153392330383481</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9138368129742609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub5ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.97102051055805</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3351135694344218</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8997102051055805</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8978893013753083</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub5ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>89.58736667272208</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4673305090982467</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8958736667272209</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8956054400181376</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub5ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.87992110658396</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.184295487849856</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7887992110658397</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7895405194144101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.60211593525895</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9001162553169706</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8460211593525895</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8303222504238377</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>92.59604321836693</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3186988398216968</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9259604321836694</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9243354982219859</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>87.84729971712558</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6748967407171828</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8784729971712558</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8668805663320743</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>91.38643067846608</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.304038178973921</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9137761237069167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>95.28023598820059</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1845169020661463</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9528023598820059</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9522405445545596</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>95.01474926253687</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1615092507927329</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9501474926253687</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9497086873496265</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>92.65521328039169</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3052604483527224</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.926552132803917</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9223187600027577</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>95.81138245140529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1994142826334913</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9581138245140529</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9576422305696418</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>97.84660766961652</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09273847467651233</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9784660766961653</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.978222815802012</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>94.10029498525074</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.199193055337931</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9410029498525073</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9413316454999139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>92.09456829211325</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3513826410246167</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9209456829211324</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9212495143424452</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>94.80912464640697</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2253079142406932</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9480912464640697</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9461862230269885</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>91.50442477876106</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4049799844840891</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9150442477876106</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9114767311032471</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>91.71091445427729</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3254549204624103</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9171091445427729</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9166044442146053</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.321875993606712</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9244303810099848</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.27264662930617</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9271729488919416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>95.34252026401613</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1647098628646139</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9534252026401612</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9524582542123181</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>96.4306784660767</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1735189958696083</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9643067846607669</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9634441924899949</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>90.53149248695924</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5083980361169476</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9053149248695924</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9002292379510569</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>92.71490237804827</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2483414935193044</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9271490237804825</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9260746353479288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>91.6558966773069</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4363763806060888</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9165589667730689</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9106293889071158</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4260339545483778</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9004975272883637</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3352421926803041</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.923008849557522</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9215179480501995</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>92.59604321836693</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3337915404498441</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9259604321836694</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9223924266411352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>91.74093201498283</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3665762268823528</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9174093201498282</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9145827492653819</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>85.54572271386431</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9400863948506109</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.855457227138643</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8502658124132981</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8100562844367232</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8404917956459826</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>97.49262536873157</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1073686777133361</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9749262536873156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9749150787619352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>97.93562228046956</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.09286703276411287</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9793562228046955</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.979518049538164</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2603281890119206</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9442477876106194</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.942409904285584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
